--- a/data/trans_camb/P2C_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P2C_R-Estudios-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,47; 9,91</t>
+          <t>3,22; 10,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,61; 9,35</t>
+          <t>2,34; 9,38</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,84; 9,7</t>
+          <t>2,26; 9,36</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,76; 11,52</t>
+          <t>4,94; 11,91</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 4,33</t>
+          <t>-2,5; 4,21</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,45; 9,2</t>
+          <t>2,43; 9,12</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,47; 10,38</t>
+          <t>5,34; 10,02</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,35; 5,45</t>
+          <t>0,82; 5,8</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,34; 8,37</t>
+          <t>3,27; 8,27</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>24,68; 88,91</t>
+          <t>23,13; 91,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>18,39; 86,68</t>
+          <t>17,12; 87,64</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>18,88; 87,93</t>
+          <t>16,93; 89,26</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>20,39; 60,3</t>
+          <t>22,13; 63,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-10,84; 23,09</t>
+          <t>-11,2; 22,35</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>10,96; 48,37</t>
+          <t>10,55; 47,29</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>30,08; 65,09</t>
+          <t>29,29; 62,41</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,06; 33,81</t>
+          <t>4,36; 36,77</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>17,91; 51,22</t>
+          <t>17,98; 51,44</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,05; 11,7</t>
+          <t>5,66; 11,67</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 4,07</t>
+          <t>-1,54; 3,86</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-13,4; -8,07</t>
+          <t>-13,33; -8,11</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,96; 18,83</t>
+          <t>12,03; 19,13</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 3,7</t>
+          <t>-2,83; 3,62</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-20,35; 0,9</t>
+          <t>-20,49; -2,15</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,4; 13,93</t>
+          <t>9,52; 14,16</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 3,0</t>
+          <t>-1,05; 3,12</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-15,71; -5,01</t>
+          <t>-15,53; -4,11</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>23,68; 52,67</t>
+          <t>21,26; 52,51</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-7,12; 18,02</t>
+          <t>-6,33; 17,41</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-52,84; -36,22</t>
+          <t>-53,25; -36,23</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>31,05; 54,17</t>
+          <t>31,3; 55,07</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-7,31; 10,8</t>
+          <t>-7,34; 10,41</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-54,75; 2,62</t>
+          <t>-54,61; -5,55</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>30,34; 48,57</t>
+          <t>30,86; 49,3</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-4,55; 10,34</t>
+          <t>-3,33; 10,76</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-51,43; -16,56</t>
+          <t>-50,98; -10,38</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,0; 18,73</t>
+          <t>6,65; 18,51</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 8,67</t>
+          <t>-2,41; 8,75</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-17,81; -8,45</t>
+          <t>-18,04; -9,03</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,47; 20,29</t>
+          <t>6,81; 20,08</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 10,93</t>
+          <t>-1,4; 10,71</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-28,81; -19,39</t>
+          <t>-28,86; -19,16</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>8,95; 18,41</t>
+          <t>9,02; 17,38</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,4; 8,04</t>
+          <t>-0,02; 8,23</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-21,6; -14,82</t>
+          <t>-21,57; -15,13</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>26,29; 87,85</t>
+          <t>25,29; 84,77</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-8,0; 40,01</t>
+          <t>-8,88; 39,9</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-65,93; -38,04</t>
+          <t>-67,03; -40,84</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>16,26; 61,66</t>
+          <t>16,83; 61,95</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 34,33</t>
+          <t>-3,46; 33,38</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-74,74; -59,9</t>
+          <t>-74,06; -59,72</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>28,08; 66,51</t>
+          <t>28,56; 63,73</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,31; 29,6</t>
+          <t>-0,08; 30,29</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-68,21; -54,34</t>
+          <t>-68,91; -54,54</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>7,12; 11,2</t>
+          <t>6,93; 11,3</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,45; 5,62</t>
+          <t>1,67; 5,83</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-8,96; -5,08</t>
+          <t>-8,49; -4,72</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>10,16; 14,92</t>
+          <t>9,99; 14,93</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,65; 5,19</t>
+          <t>0,72; 5,11</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-12,99; 1,77</t>
+          <t>-12,8; -2,26</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>9,21; 12,37</t>
+          <t>9,27; 12,44</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,82; 4,86</t>
+          <t>1,65; 4,78</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-10,03; -3,97</t>
+          <t>-9,91; -3,29</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>33,46; 58,79</t>
+          <t>32,67; 58,68</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>6,69; 29,03</t>
+          <t>7,98; 30,31</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-42,19; -26,17</t>
+          <t>-40,37; -24,66</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>32,26; 51,15</t>
+          <t>31,74; 50,95</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>2,1; 17,69</t>
+          <t>2,28; 17,42</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-41,95; 6,5</t>
+          <t>-41,48; -7,07</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>35,28; 50,55</t>
+          <t>35,41; 50,61</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>6,88; 19,72</t>
+          <t>6,26; 19,35</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-38,93; -13,41</t>
+          <t>-38,7; -12,83</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P2C_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P2C_R-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,22; 10,08</t>
+          <t>3,35; 9,8</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,34; 9,38</t>
+          <t>2,54; 9,48</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,26; 9,36</t>
+          <t>2,36; 9,75</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,94; 11,91</t>
+          <t>4,55; 11,51</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 4,21</t>
+          <t>-2,53; 4,51</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,43; 9,12</t>
+          <t>2,18; 8,84</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,34; 10,02</t>
+          <t>5,03; 10,28</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,82; 5,8</t>
+          <t>0,78; 5,78</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,27; 8,27</t>
+          <t>3,48; 8,55</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>23,13; 91,48</t>
+          <t>23,85; 90,6</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>17,12; 87,64</t>
+          <t>17,58; 86,79</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>16,93; 89,26</t>
+          <t>16,59; 89,25</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>22,13; 63,0</t>
+          <t>19,94; 58,94</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-11,2; 22,35</t>
+          <t>-11,45; 22,85</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>10,55; 47,29</t>
+          <t>9,42; 44,96</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>29,29; 62,41</t>
+          <t>28,13; 65,37</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,36; 36,77</t>
+          <t>4,44; 36,01</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>17,98; 51,44</t>
+          <t>19,26; 53,87</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,66; 11,67</t>
+          <t>6,07; 12,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 3,86</t>
+          <t>-1,31; 4,17</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-13,33; -8,11</t>
+          <t>-13,32; -7,99</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>12,03; 19,13</t>
+          <t>11,68; 18,66</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,83; 3,62</t>
+          <t>-3,0; 3,84</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-20,49; -2,15</t>
+          <t>-20,34; -2,72</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,52; 14,16</t>
+          <t>9,32; 14,05</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 3,12</t>
+          <t>-1,5; 3,09</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-15,53; -4,11</t>
+          <t>-15,55; -2,59</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>21,26; 52,51</t>
+          <t>23,1; 53,83</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,33; 17,41</t>
+          <t>-5,28; 18,57</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-53,25; -36,23</t>
+          <t>-53,28; -35,93</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>31,3; 55,07</t>
+          <t>30,49; 54,01</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-7,34; 10,41</t>
+          <t>-7,59; 11,09</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-54,61; -5,55</t>
+          <t>-54,5; -7,46</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>30,86; 49,3</t>
+          <t>29,77; 48,58</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-3,33; 10,76</t>
+          <t>-4,77; 10,82</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-50,98; -10,38</t>
+          <t>-51,03; -8,25</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,65; 18,51</t>
+          <t>6,94; 18,83</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 8,75</t>
+          <t>-2,18; 8,97</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-18,04; -9,03</t>
+          <t>-18,0; -8,67</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,81; 20,08</t>
+          <t>6,1; 20,37</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 10,71</t>
+          <t>-1,47; 11,07</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-28,86; -19,16</t>
+          <t>-29,01; -19,42</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>9,02; 17,38</t>
+          <t>8,9; 17,74</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 8,23</t>
+          <t>0,08; 8,44</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-21,57; -15,13</t>
+          <t>-21,81; -14,94</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>25,29; 84,77</t>
+          <t>26,0; 87,8</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-8,88; 39,9</t>
+          <t>-8,8; 41,44</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-67,03; -40,84</t>
+          <t>-66,16; -39,29</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>16,83; 61,95</t>
+          <t>15,87; 63,5</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 33,38</t>
+          <t>-3,41; 35,72</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-74,06; -59,72</t>
+          <t>-74,73; -60,46</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>28,56; 63,73</t>
+          <t>29,29; 64,78</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 30,29</t>
+          <t>0,33; 30,6</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-68,91; -54,54</t>
+          <t>-68,06; -53,8</t>
         </is>
       </c>
     </row>
@@ -1333,22 +1333,22 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,93; 11,3</t>
+          <t>6,95; 11,32</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,67; 5,83</t>
+          <t>1,61; 5,67</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-8,49; -4,72</t>
+          <t>-8,54; -4,82</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>9,99; 14,93</t>
+          <t>10,43; 15,03</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1358,22 +1358,22 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-12,8; -2,26</t>
+          <t>-12,84; -2,25</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>9,27; 12,44</t>
+          <t>9,25; 12,57</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,65; 4,78</t>
+          <t>1,76; 4,81</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-9,91; -3,29</t>
+          <t>-9,94; -2,91</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>32,67; 58,68</t>
+          <t>32,78; 59,35</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>7,98; 30,31</t>
+          <t>8,01; 29,96</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-40,37; -24,66</t>
+          <t>-40,96; -24,95</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>31,74; 50,95</t>
+          <t>33,3; 51,9</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>2,28; 17,42</t>
+          <t>2,09; 17,34</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-41,48; -7,07</t>
+          <t>-41,55; -7,3</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>35,41; 50,61</t>
+          <t>35,31; 50,58</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>6,26; 19,35</t>
+          <t>6,78; 19,55</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-38,7; -12,83</t>
+          <t>-38,57; -10,46</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P2C_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P2C_R-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Cuidados por parte del entrevistado/a (hogares con personas que requieren dedicación o cuidados especiales)</t>
+          <t>Hogares con al menos un miembro que requiere cuidados habituales por la persona entrevistada</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,54</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,84</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,81</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>8,27</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,48</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>7,7</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>3,12</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>6,01</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,35; 9,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,54; 9,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,36; 9,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,55; 11,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 4,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,18; 8,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,03; 10,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,78; 5,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,48; 8,55</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>53,35%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>47,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>47,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>39,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>4,45%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>26,22%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>45,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>18,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>35,15%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>23,85; 90,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>17,58; 86,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>16,59; 89,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>19,94; 58,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-11,45; 22,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>9,42; 44,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>28,13; 65,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,44; 36,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>19,26; 53,87</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>8,86</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,26</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-10,64</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>15,25</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,54</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-15,32</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>11,73</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-12,69</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,07; 12,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 4,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-13,32; -7,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,68; 18,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 3,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-20,34; -2,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,32; 14,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 3,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-15,55; -2,59</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>37,41%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-44,91%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>41,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-41,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>39,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>3,26%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-42,37%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>23,1; 53,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,28; 18,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-53,28; -35,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>30,49; 54,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-7,59; 11,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-54,5; -7,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>29,77; 48,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 10,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-51,03; -8,25</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>12,8</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,16</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-13,12</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>13,45</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>4,56</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-24,07</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>13,4</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>4,29</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-18,17</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,94; 18,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 8,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-18,0; -8,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,1; 20,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 11,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-29,01; -19,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>8,9; 17,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,08; 8,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-21,81; -14,94</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>52,86%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>13,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-54,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>37,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>12,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-67,68%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>45,45%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>14,54%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-61,65%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>26,0; 87,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-8,8; 41,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-66,16; -39,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>15,87; 63,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 35,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-74,73; -60,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>29,29; 64,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,33; 30,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-68,06; -53,8</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>9,08</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,63</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-6,71</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>12,6</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2,95</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-9,78</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>10,9</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>3,32</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-8,11</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,95; 11,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,61; 5,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-8,54; -4,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>10,43; 15,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,72; 5,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-12,84; -2,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>9,25; 12,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,76; 4,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-9,94; -2,91</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>45,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>18,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-33,26%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>41,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>9,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-32,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>42,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>13,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-32,01%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>32,78; 59,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>8,01; 29,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-40,96; -24,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>33,3; 51,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>2,09; 17,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-41,55; -7,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>35,31; 50,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>6,78; 19,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-38,57; -10,46</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P2C_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P2C_R-Estudios-trans_camb.xlsx
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,43</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,92</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,36</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,51</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-17,81</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,08</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,73</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-15,21</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,74; 12,15</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,93; 12,23</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,38; -7,24</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,05; 12,6</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,52; 4,4</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,09; -14,22</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,23; 11,5</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,48; 6,23</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,69; -12,37</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,52%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-55,84%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,86%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,42%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-62,49%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,07%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,84%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-60,33%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,47; 66,74</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,26; 66,55</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,17; -39,06</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,38; 48,13</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,77; 16,4</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-69,03; -54,55</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,31; 49,3</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,86; 25,74</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,08; -52,91</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,75</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,71</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-37,86</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>19,37</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,57</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-38,26</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,92</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,72</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-38,39</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,38; 17,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,87; 8,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,78; -34,09</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,67; 23,22</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,54; 5,76</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,04; -11,81</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,07; 19,06</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,41; 6,01</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,53; -24,88</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,03%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,16%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-83,27%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,69%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,65%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-64,56%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,25%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,16%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-72,96%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,95; 40,82</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,84; 18,67</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-87,9; -79,73</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>25,35; 40,98</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,1; 10,04</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-78,8; -20,14</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>24,14; 37,8</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,89; 11,63</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,79; -46,59</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>21,27</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,01</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-40,88</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>24,3</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,99</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-50,07</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>22,93</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,09</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-45,44</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,01; 29,97</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,91; 16,78</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,75; -34,23</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,78; 31,4</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,81; 18,99</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,34; -43,77</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,32; 28,5</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,33; 15,83</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,68; -40,95</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>44,18%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,64%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-84,9%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,41%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,29%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-83,27%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>42,37%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,64%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-83,96%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>23,78; 68,98</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,06; 37,97</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,53; -79,13</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>24,58; 56,98</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,37; 34,63</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-86,79; -79,13</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>30,12; 56,05</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,62; 30,55</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-86,52; -80,58</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,39</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,2</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-29,21</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,66</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,27</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-29,11</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,11</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,19</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-29,45</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,37; 15,62</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,17; 10,55</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,0; -26,73</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,7; 18,29</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,38; 8,15</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,76; -10,11</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,86; 16,23</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,1; 8,63</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,59; -20,19</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,53%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,47%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-79,03%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,04%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,46%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-63,28%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,67%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,76%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-70,29%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>24,38; 44,47</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,7; 29,9</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,62; -75,41</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>26,25; 41,05</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,03; 18,52</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,75; -21,66</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>27,66; 39,96</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,78; 21,59</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-77,21; -47,3</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P2C_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P2C_R-Estudios-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,74; 12,15</t>
+          <t>2,69; 12,07</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,93; 12,23</t>
+          <t>1,78; 12,44</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-15,38; -7,24</t>
+          <t>-15,17; -7,33</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,05; 12,6</t>
+          <t>4,57; 12,54</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,52; 4,4</t>
+          <t>-4,51; 3,8</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-21,09; -14,22</t>
+          <t>-21,33; -14,72</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,23; 11,5</t>
+          <t>5,11; 11,45</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 6,23</t>
+          <t>-0,59; 6,25</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-17,69; -12,37</t>
+          <t>-17,85; -12,93</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>12,47; 66,74</t>
+          <t>12,21; 68,44</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,26; 66,55</t>
+          <t>7,92; 66,43</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-67,17; -39,06</t>
+          <t>-67,03; -40,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>13,38; 48,13</t>
+          <t>14,2; 47,24</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-14,77; 16,4</t>
+          <t>-14,94; 14,17</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-69,03; -54,55</t>
+          <t>-69,26; -55,1</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>19,31; 49,3</t>
+          <t>18,92; 48,2</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 25,74</t>
+          <t>-2,39; 25,69</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-66,08; -52,91</t>
+          <t>-66,6; -53,93</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,38; 17,39</t>
+          <t>8,32; 17,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 8,15</t>
+          <t>-0,85; 8,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-41,78; -34,09</t>
+          <t>-42,05; -34,03</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>15,67; 23,22</t>
+          <t>15,15; 23,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 5,76</t>
+          <t>-2,55; 5,78</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-47,04; -11,81</t>
+          <t>-47,5; -16,27</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>13,07; 19,06</t>
+          <t>12,55; 18,72</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 6,01</t>
+          <t>-0,37; 5,93</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-43,53; -24,88</t>
+          <t>-43,31; -23,44</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>17,95; 40,82</t>
+          <t>17,43; 39,79</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 18,67</t>
+          <t>-1,8; 18,75</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-87,9; -79,73</t>
+          <t>-88,34; -79,55</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>25,35; 40,98</t>
+          <t>24,65; 40,73</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 10,04</t>
+          <t>-4,17; 10,08</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-78,8; -20,14</t>
+          <t>-79,16; -27,17</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>24,14; 37,8</t>
+          <t>23,09; 36,78</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 11,63</t>
+          <t>-0,71; 11,67</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-81,79; -46,59</t>
+          <t>-81,54; -44,83</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>12,01; 29,97</t>
+          <t>12,29; 29,99</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 16,78</t>
+          <t>-0,58; 17,24</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-46,75; -34,23</t>
+          <t>-47,94; -34,21</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>15,78; 31,4</t>
+          <t>17,13; 31,9</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,81; 18,99</t>
+          <t>2,66; 19,62</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-56,34; -43,77</t>
+          <t>-56,22; -44,43</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>17,32; 28,5</t>
+          <t>17,07; 28,64</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,33; 15,83</t>
+          <t>4,42; 15,95</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-49,68; -40,95</t>
+          <t>-49,94; -40,75</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>23,78; 68,98</t>
+          <t>23,76; 69,09</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-4,06; 37,97</t>
+          <t>-1,0; 40,61</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-89,53; -79,13</t>
+          <t>-89,49; -78,97</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>24,58; 56,98</t>
+          <t>26,28; 57,18</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>4,37; 34,63</t>
+          <t>4,14; 35,99</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-86,79; -79,13</t>
+          <t>-86,49; -79,25</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>30,12; 56,05</t>
+          <t>30,19; 57,86</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>7,62; 30,55</t>
+          <t>7,79; 32,21</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-86,52; -80,58</t>
+          <t>-86,78; -80,51</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>9,37; 15,62</t>
+          <t>9,1; 15,39</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,17; 10,55</t>
+          <t>4,19; 10,55</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-32,0; -26,73</t>
+          <t>-32,07; -26,65</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>12,7; 18,29</t>
+          <t>12,85; 18,58</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,38; 8,15</t>
+          <t>2,51; 8,54</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-34,76; -10,11</t>
+          <t>-34,89; -12,71</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>11,86; 16,23</t>
+          <t>12,06; 16,32</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,1; 8,63</t>
+          <t>3,83; 8,36</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-32,59; -20,19</t>
+          <t>-32,74; -20,04</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>24,38; 44,47</t>
+          <t>23,54; 43,34</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>10,7; 29,9</t>
+          <t>10,94; 30,13</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-83,62; -75,41</t>
+          <t>-83,33; -75,45</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>26,25; 41,05</t>
+          <t>26,94; 41,93</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>5,03; 18,52</t>
+          <t>5,36; 19,41</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-74,75; -21,66</t>
+          <t>-74,77; -27,64</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>27,66; 39,96</t>
+          <t>28,21; 40,21</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>9,78; 21,59</t>
+          <t>8,9; 20,45</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-77,21; -47,3</t>
+          <t>-77,3; -47,68</t>
         </is>
       </c>
     </row>
